--- a/Finalrunde Antwort-Maske.xlsx
+++ b/Finalrunde Antwort-Maske.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="28515" windowHeight="13605"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>… etwas, was sie auf eine einsame Insel mitnimmt:</t>
   </si>
   <si>
-    <t>… einen Ort, wo die beiden gewohnt haben:</t>
+    <t>… einen Ort, wo das Brautpaar gewohnt hat:</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +575,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -587,5 +588,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>